--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-static_pruning_quant-dynamic/0_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-static_pruning_quant-dynamic/0_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.013</v>
+        <v>0.021</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.769</v>
+        <v>-0.233</v>
       </c>
       <c r="D4" t="n">
-        <v>-21400</v>
+        <v>-1209.52</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.094</v>
+        <v>-0.047</v>
       </c>
       <c r="D5" t="n">
-        <v>-508.7</v>
+        <v>-295.83</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.142</v>
+        <v>2.866</v>
       </c>
       <c r="C6" t="n">
-        <v>11.992</v>
+        <v>3.61</v>
       </c>
       <c r="D6" t="n">
-        <v>281.67</v>
+        <v>25.96</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.198</v>
+        <v>0.192</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.216</v>
       </c>
       <c r="D7" t="n">
-        <v>308.59</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>10.979</v>
       </c>
       <c r="C8" t="n">
-        <v>22.384</v>
+        <v>14.029</v>
       </c>
       <c r="D8" t="n">
-        <v>103.88</v>
+        <v>27.78</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.201</v>
+        <v>2.195</v>
       </c>
       <c r="C9" t="n">
-        <v>10.418</v>
+        <v>2.476</v>
       </c>
       <c r="D9" t="n">
-        <v>373.33</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.043</v>
+        <v>14.834</v>
       </c>
       <c r="C10" t="n">
-        <v>162.264</v>
+        <v>26.348</v>
       </c>
       <c r="D10" t="n">
-        <v>799.3200000000001</v>
+        <v>77.62</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.062</v>
+        <v>0.053</v>
       </c>
       <c r="C11" t="n">
-        <v>2.211</v>
+        <v>0.107</v>
       </c>
       <c r="D11" t="n">
-        <v>3466.13</v>
+        <v>101.89</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.06900000000000001</v>
+        <v>-0.011</v>
       </c>
       <c r="C12" t="n">
-        <v>-8.615</v>
+        <v>-0.795</v>
       </c>
       <c r="D12" t="n">
-        <v>12385.51</v>
+        <v>7127.27</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.248</v>
+        <v>3.851</v>
       </c>
       <c r="C13" t="n">
-        <v>12.738</v>
+        <v>5.133</v>
       </c>
       <c r="D13" t="n">
-        <v>199.86</v>
+        <v>33.29</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.695730000734329</v>
+        <v>3.487744002115159</v>
       </c>
       <c r="C4" t="n">
-        <v>3.285032004117966</v>
+        <v>4.49289904321943</v>
       </c>
       <c r="D4" t="n">
-        <v>21.86</v>
+        <v>28.82</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8054157657085295</v>
+        <v>0.6570592895663641</v>
       </c>
       <c r="F4" t="n">
-        <v>0.485185926175283</v>
+        <v>0.7052910822945302</v>
       </c>
       <c r="G4" t="n">
-        <v>-39.76</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="5">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.527486380726288</v>
+        <v>6.597298230250038</v>
       </c>
       <c r="C6" t="n">
-        <v>5.209590830747233</v>
+        <v>5.265646730772842</v>
       </c>
       <c r="D6" t="n">
-        <v>-20.19</v>
+        <v>-20.18</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3172222107403995</v>
+        <v>1.11059219361247</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2375696609987683</v>
+        <v>0.6899377107021708</v>
       </c>
       <c r="G6" t="n">
-        <v>-25.11</v>
+        <v>-37.88</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-static_pruning_quant-dynamic/0_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-static_pruning_quant-dynamic/0_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.021</v>
+        <v>-0.03</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.233</v>
+        <v>-0.033</v>
       </c>
       <c r="D4" t="n">
-        <v>-1209.52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.024</v>
+        <v>0.019</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.047</v>
+        <v>-0.014</v>
       </c>
       <c r="D5" t="n">
-        <v>-295.83</v>
+        <v>-173.68</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.866</v>
+        <v>2.756</v>
       </c>
       <c r="C6" t="n">
-        <v>3.61</v>
+        <v>2.763</v>
       </c>
       <c r="D6" t="n">
-        <v>25.96</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.192</v>
+        <v>0.209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.216</v>
+        <v>0.206</v>
       </c>
       <c r="D7" t="n">
-        <v>12.5</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.979</v>
+        <v>8.888</v>
       </c>
       <c r="C8" t="n">
-        <v>14.029</v>
+        <v>10.245</v>
       </c>
       <c r="D8" t="n">
-        <v>27.78</v>
+        <v>15.27</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.195</v>
+        <v>2.651</v>
       </c>
       <c r="C9" t="n">
-        <v>2.476</v>
+        <v>2.531</v>
       </c>
       <c r="D9" t="n">
-        <v>12.8</v>
+        <v>-4.53</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.834</v>
+        <v>11.837</v>
       </c>
       <c r="C10" t="n">
-        <v>26.348</v>
+        <v>12.051</v>
       </c>
       <c r="D10" t="n">
-        <v>77.62</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.053</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.107</v>
+        <v>0.05</v>
       </c>
       <c r="D11" t="n">
-        <v>101.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.011</v>
+        <v>-0.001</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.795</v>
+        <v>-0.019</v>
       </c>
       <c r="D12" t="n">
-        <v>7127.27</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.851</v>
+        <v>3.441</v>
       </c>
       <c r="C13" t="n">
-        <v>5.133</v>
+        <v>3.471</v>
       </c>
       <c r="D13" t="n">
-        <v>33.29</v>
+        <v>0.87</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.487744002115159</v>
+        <v>3.710408403759911</v>
       </c>
       <c r="C4" t="n">
-        <v>4.49289904321943</v>
+        <v>4.956680354617891</v>
       </c>
       <c r="D4" t="n">
-        <v>28.82</v>
+        <v>33.59</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6570592895663641</v>
+        <v>0.8933118189644437</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7052910822945302</v>
+        <v>1.270986406785277</v>
       </c>
       <c r="G4" t="n">
-        <v>7.34</v>
+        <v>42.28</v>
       </c>
     </row>
     <row r="5">
@@ -773,10 +773,10 @@
         <v>2.954</v>
       </c>
       <c r="C5" t="n">
-        <v>1.678</v>
+        <v>2.122</v>
       </c>
       <c r="D5" t="n">
-        <v>-43.2</v>
+        <v>-28.17</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.597298230250038</v>
+        <v>2.770349053028334</v>
       </c>
       <c r="C6" t="n">
-        <v>5.265646730772842</v>
+        <v>2.217461172536499</v>
       </c>
       <c r="D6" t="n">
-        <v>-20.18</v>
+        <v>-19.96</v>
       </c>
       <c r="E6" t="n">
-        <v>1.11059219361247</v>
+        <v>0.9540826794457348</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6899377107021708</v>
+        <v>0.5348424051367111</v>
       </c>
       <c r="G6" t="n">
-        <v>-37.88</v>
+        <v>-43.94</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-static_pruning_quant-dynamic/0_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-static_pruning_quant-dynamic/0_low-rank_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
